--- a/Texts/Город Сокровищ/Все персонажи/Торкоал.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Торкоал.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -58,6 +58,15 @@
   </si>
   <si>
     <t>SCRIPT/P02P01A/um0607.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/P02P01A/um1103.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/P02P01A/um1106.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/P02P01A/um1109.ssb</t>
   </si>
 </sst>
 </file>
@@ -88,7 +97,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -120,15 +129,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -150,10 +150,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -436,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -503,6 +503,21 @@
         <v>11</v>
       </c>
     </row>
+    <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Texts/Город Сокровищ/Все персонажи/Торкоал.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Торкоал.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -67,6 +67,33 @@
   </si>
   <si>
     <t>SCRIPT/P02P01A/um1109.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/P02P01A/um1204.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/P02P01A/um1303.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/P02P01A/um1306.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/P02P01A/um1309.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/P02P01A/um1401.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/P02P01A/um1404.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/P02P01A/um1501.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/P02P01A/um1601.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/P02P01A/um1604.ssb</t>
   </si>
 </sst>
 </file>
@@ -436,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -518,6 +545,51 @@
         <v>15</v>
       </c>
     </row>
+    <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Texts/Город Сокровищ/Все персонажи/Торкоал.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Торкоал.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -94,6 +94,39 @@
   </si>
   <si>
     <t>SCRIPT/P02P01A/um1604.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oh, my goodness gracious![K]\nYou say you made it to the [CS:P]Hidden Land[CR]?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Who would have thought it? The\n[CS:P]Hidden Land[CR] really did exist!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Well, I daresay you\'re most\nremarkable. Ho-ho-ho!</t>
+  </si>
+  <si>
+    <t>SCRIPT/P02P01A/um2401.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/P02P01A/um2501.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Кто бы мог подумать? [CS:P]Сокрытые\nЗемли[CR] и впрямь существуют!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ну, смею сказать, что вы самые\nзамечательные. Хо-хо-хо!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëóï áú íïã ðïäôíàóû? [CS:P]Òïëñúóúå\nÈåíìé[CR] é âðñÿíû òôþåòóâôýó!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îô, òíåý òëàèàóû, œóï âú òàíúå\nèàíåœàóåìûîúå. Öï-öï-öï!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> О, боже милостивый![K] Говорите,\nвы достигли [CS:P]Сокрытых Земель[CR]?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ï, áïçå íéìïòóéâúê![K] Ãïâïñéóå,\nâú äïòóéãìé [CS:P]Òïëñúóúö Èåíåìû[CR]?!</t>
   </si>
 </sst>
 </file>
@@ -124,7 +157,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -156,11 +189,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -181,6 +223,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -463,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -586,8 +634,60 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="8" t="s">
         <v>24</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="4">
+        <v>44</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="4">
+        <v>47</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="4">
+        <v>50</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Торкоал.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Торкоал.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -127,6 +127,39 @@
   </si>
   <si>
     <t xml:space="preserve"> Ï, áïçå íéìïòóéâúê![K] Ãïâïñéóå,\nâú äïòóéãìé [CS:P]Òïëñúóúö Èåíåìû[CR]?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I thank you sincerely.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It was your doing that brought\npeace to our world.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The fact that I can lounge on the\nrocks here... That\'s your doing too. Ho-ho-ho!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SCRIPT/P02P01A/us0101.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я благодарю вас от всего\nсердца.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Именно вы смогли даровать покой\nнашему миру.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> То, что я могу тут лежать на\nкамнях... Это тоже ваша заслуга. Хо-хо-хо!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ áìàãïäàñý âàò ïó âòåãï\nòåñäøà.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Éíåîîï âú òíïãìé äàñïâàóû ðïëïê\nîàšåíô íéñô.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óï, œóï ÿ íïãô óôó ìåçàóû îà\nëàíîÿö... Üóï óïçå âàšà èàòìôãà. Öï-öï-öï!</t>
+  </si>
+  <si>
+    <t>SCRIPT/P02P01A/us3101.ssb</t>
   </si>
 </sst>
 </file>
@@ -511,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -677,17 +710,66 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B18" s="4">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8">
         <v>50</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="9" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="4">
+        <v>18</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="4">
+        <v>21</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B21" s="4">
+        <v>24</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Торкоал.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Торкоал.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -160,6 +160,21 @@
   </si>
   <si>
     <t>SCRIPT/P02P01A/us3101.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/P02P01A/us0201.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/P02P01A/us0401.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/P02P01A/us2001.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/P02P01A/us2004.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/P02P01A/us2007.ssb</t>
   </si>
 </sst>
 </file>
@@ -544,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -758,7 +773,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="B21" s="4">
         <v>24</v>
       </c>
@@ -770,6 +788,26 @@
       </c>
       <c r="E21" s="5" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
